--- a/220815함수정리.xlsx
+++ b/220815함수정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6202P-08\Desktop\FuncTest\FuncTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6202P-08\Desktop\ToothlessPJ\ENFP-Witch-s-Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1763,7 +1763,7 @@
   <dimension ref="B2:R520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -2053,7 +2053,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4">
         <v>30</v>
